--- a/data/input/absenteeism_data_19.xlsx
+++ b/data/input/absenteeism_data_19.xlsx
@@ -476,292 +476,292 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>81050</v>
+        <v>43667</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vitória Peixoto</t>
+          <t>Alana Fogaça</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45084</v>
+        <v>45082</v>
       </c>
       <c r="G2" t="n">
-        <v>11045.76</v>
+        <v>5197.34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>11844</v>
+        <v>33148</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ana Laura Moreira</t>
+          <t>Srta. Brenda Costela</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45083</v>
+        <v>45093</v>
       </c>
       <c r="G3" t="n">
-        <v>4514.49</v>
+        <v>8235.6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>43951</v>
+        <v>97783</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Milena Peixoto</t>
+          <t>Thomas Pereira</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45095</v>
+        <v>45098</v>
       </c>
       <c r="G4" t="n">
-        <v>5424.05</v>
+        <v>6158.1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>42380</v>
+        <v>59911</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Enrico Barros</t>
+          <t>Yuri Rocha</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45104</v>
+        <v>45083</v>
       </c>
       <c r="G5" t="n">
-        <v>8740.700000000001</v>
+        <v>6646.44</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5917</v>
+        <v>90692</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gustavo das Neves</t>
+          <t>João Felipe Nunes</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45084</v>
+        <v>45090</v>
       </c>
       <c r="G6" t="n">
-        <v>9451.719999999999</v>
+        <v>5921.15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>71475</v>
+        <v>53523</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Srta. Larissa Cunha</t>
+          <t>Dra. Maria Fernanda da Paz</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45102</v>
+        <v>45090</v>
       </c>
       <c r="G7" t="n">
-        <v>3512.58</v>
+        <v>7110.24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>80224</v>
+        <v>64939</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Lucas Gabriel Moraes</t>
+          <t>Davi Lucca Moraes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45103</v>
+        <v>45099</v>
       </c>
       <c r="G8" t="n">
-        <v>9401.6</v>
+        <v>4874.17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>67589</v>
+        <v>29731</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Juan Costa</t>
+          <t>Dr. Fernando Porto</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45092</v>
+        <v>45101</v>
       </c>
       <c r="G9" t="n">
-        <v>6664.73</v>
+        <v>3410.96</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>56136</v>
+        <v>10620</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Raul Rodrigues</t>
+          <t>Maria Sophia Ferreira</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45106</v>
+        <v>45085</v>
       </c>
       <c r="G10" t="n">
-        <v>8104.89</v>
+        <v>6855.43</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>43808</v>
+        <v>86595</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Vicente Nogueira</t>
+          <t>Levi Nunes</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45106</v>
+        <v>45086</v>
       </c>
       <c r="G11" t="n">
-        <v>4192.1</v>
+        <v>3501.79</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_19.xlsx
+++ b/data/input/absenteeism_data_19.xlsx
@@ -476,190 +476,190 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>43667</v>
+        <v>17368</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alana Fogaça</t>
+          <t>Bruno Porto</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>3</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45082</v>
+        <v>45080</v>
       </c>
       <c r="G2" t="n">
-        <v>5197.34</v>
+        <v>3482.1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>33148</v>
+        <v>22683</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Srta. Brenda Costela</t>
+          <t>Isis Pinto</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45093</v>
+        <v>45084</v>
       </c>
       <c r="G3" t="n">
-        <v>8235.6</v>
+        <v>3309.16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>97783</v>
+        <v>13632</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Thomas Pereira</t>
+          <t>Maria Eduarda Alves</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45098</v>
+        <v>45102</v>
       </c>
       <c r="G4" t="n">
-        <v>6158.1</v>
+        <v>11204.74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>59911</v>
+        <v>25873</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Yuri Rocha</t>
+          <t>Beatriz Dias</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>45083</v>
       </c>
       <c r="G5" t="n">
-        <v>6646.44</v>
+        <v>8685.59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>90692</v>
+        <v>17937</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>João Felipe Nunes</t>
+          <t>Davi Luiz Ferreira</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45090</v>
+        <v>45098</v>
       </c>
       <c r="G6" t="n">
-        <v>5921.15</v>
+        <v>3324.05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>53523</v>
+        <v>60912</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dra. Maria Fernanda da Paz</t>
+          <t>Helena Cavalcanti</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45090</v>
+        <v>45084</v>
       </c>
       <c r="G7" t="n">
-        <v>7110.24</v>
+        <v>10085.62</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>64939</v>
+        <v>61485</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Davi Lucca Moraes</t>
+          <t>Sr. Benício Peixoto</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -668,100 +668,100 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45099</v>
+        <v>45104</v>
       </c>
       <c r="G8" t="n">
-        <v>4874.17</v>
+        <v>10877.51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>29731</v>
+        <v>81068</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Dr. Fernando Porto</t>
+          <t>Bianca Gomes</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>4</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45101</v>
+        <v>45092</v>
       </c>
       <c r="G9" t="n">
-        <v>3410.96</v>
+        <v>6566.03</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>10620</v>
+        <v>49568</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Maria Sophia Ferreira</t>
+          <t>Lorenzo Almeida</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45085</v>
+        <v>45079</v>
       </c>
       <c r="G10" t="n">
-        <v>6855.43</v>
+        <v>4050.02</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>86595</v>
+        <v>12196</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Levi Nunes</t>
+          <t>Luiz Fernando Nunes</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45086</v>
+        <v>45082</v>
       </c>
       <c r="G11" t="n">
-        <v>3501.79</v>
+        <v>12001.99</v>
       </c>
     </row>
   </sheetData>
